--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.1/avg_0.004_scores.xlsx
@@ -100,22 +100,22 @@
     <t>safe</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>gt</t>
@@ -1084,25 +1084,25 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.7665198237885462</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L19">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1110,25 +1110,25 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.7333333333333333</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="N20">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1188,25 +1188,25 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.6515151515151515</v>
       </c>
       <c r="L23">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="M23">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>109</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1214,25 +1214,25 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.6515151515151515</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="M24">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="N24">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>23</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="10:17">
